--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\grade\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9D2FE9-8EDA-455F-B640-7EC6D348A988}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB5339-03AB-4485-9C80-9DB74DEA9D76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Fullname</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>P1_report</t>
+  </si>
+  <si>
+    <t>Late video (-1%), wrong image (-0.5)</t>
+  </si>
+  <si>
+    <t>No data process story and finding (-2)</t>
+  </si>
+  <si>
+    <t>No image or capture in readme</t>
+  </si>
+  <si>
+    <t>1 day late submission (-2)</t>
+  </si>
+  <si>
+    <t>Less finding information</t>
   </si>
 </sst>
 </file>
@@ -584,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +753,9 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -817,6 +835,9 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -852,6 +873,9 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -911,6 +935,9 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -993,6 +1020,9 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB5339-03AB-4485-9C80-9DB74DEA9D76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DCAFF-8BB2-4CD5-BBF5-CCF28069F79E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Fullname</t>
   </si>
@@ -182,67 +182,73 @@
 </t>
   </si>
   <si>
-    <t>Had mouseover, 
+    <t>Github readme is empty,wrong image format</t>
+  </si>
+  <si>
+    <t>Focus on female and %, NOT the global trend, 2 days late submission(-4%),No video
+Mistake on using national average color</t>
+  </si>
+  <si>
+    <t>Using online API, Late Demo Video(-1%), Incorrect image format, (-0.5%)
+Top 20 singers for each inputted user</t>
+  </si>
+  <si>
+    <t>No secondary selection no data finding(-1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no data process discussion (-1%)</t>
+  </si>
+  <si>
+    <t>P1_code</t>
+  </si>
+  <si>
+    <t>P1_talk</t>
+  </si>
+  <si>
+    <t>P1_report</t>
+  </si>
+  <si>
+    <t>Late video (-1%), wrong image (-0.5)</t>
+  </si>
+  <si>
+    <t>No data process story and finding (-2)</t>
+  </si>
+  <si>
+    <t>No image or capture in readme</t>
+  </si>
+  <si>
+    <t>1 day late submission (-2)</t>
+  </si>
+  <si>
+    <t>Less finding information</t>
+  </si>
+  <si>
+    <t>Late video (-1%)</t>
+  </si>
+  <si>
+    <t>No video (-3), No data describe (-1)</t>
+  </si>
+  <si>
+    <t>Had mouseover, Late video(-1), Late readme update (-1)
 No map, no color legend
 Lines is over-flow on the left</t>
   </si>
   <si>
-    <t>Have problem of using color, late change in html (70% change), No video
+    <t>Have problem of using color, late change in html (70% change), No video (-3)
 Scale of the chart is incorrect, missing 1 circle</t>
   </si>
   <si>
-    <t>Github readme is empty,wrong image format</t>
-  </si>
-  <si>
-    <t>Use library</t>
+    <t>Use library, 1 date late submission(-2), late readme update(-1)</t>
+  </si>
+  <si>
+    <t>No search box now
+ 1 day late submission(-2%)
+Late readme update (-1)</t>
   </si>
   <si>
     <t>Found the data online (github)
 No axis labels
-Selection on the text legends, No date filtering</t>
-  </si>
-  <si>
-    <t>Focus on female and %, NOT the global trend, 2 days late submission(-4%),No video
-Mistake on using national average color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No search box now
- 1 day late submission(-2%)
-</t>
-  </si>
-  <si>
-    <t>Using online API, Late Demo Video(-1%), Incorrect image format, (-0.5%)
-Top 20 singers for each inputted user</t>
-  </si>
-  <si>
-    <t>No secondary selection no data finding(-1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no data process discussion (-1%)</t>
-  </si>
-  <si>
-    <t>P1_code</t>
-  </si>
-  <si>
-    <t>P1_talk</t>
-  </si>
-  <si>
-    <t>P1_report</t>
-  </si>
-  <si>
-    <t>Late video (-1%), wrong image (-0.5)</t>
-  </si>
-  <si>
-    <t>No data process story and finding (-2)</t>
-  </si>
-  <si>
-    <t>No image or capture in readme</t>
-  </si>
-  <si>
-    <t>1 day late submission (-2)</t>
-  </si>
-  <si>
-    <t>Less finding information</t>
+Selection on the text legends, No date filtering. No image description in readme (-0.5)</t>
   </si>
 </sst>
 </file>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +623,13 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -674,6 +680,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="C6">
         <v>11</v>
       </c>
@@ -693,6 +702,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
       <c r="C8">
         <v>9</v>
       </c>
@@ -700,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -754,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -809,12 +821,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -823,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -861,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -882,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -914,7 +926,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -936,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -944,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -961,7 +973,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -970,7 +982,7 @@
         <v>4.5</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -987,7 +999,7 @@
         <v>4.5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,12 +1012,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -1014,7 +1026,7 @@
         <v>4.5</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DCAFF-8BB2-4CD5-BBF5-CCF28069F79E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF2E18-C5EB-402C-AC6B-C9F2BEA97CE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Fullname</t>
   </si>
@@ -196,9 +196,6 @@
     <t>No secondary selection no data finding(-1%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> no data process discussion (-1%)</t>
-  </si>
-  <si>
     <t>P1_code</t>
   </si>
   <si>
@@ -249,6 +246,21 @@
     <t>Found the data online (github)
 No axis labels
 Selection on the text legends, No date filtering. No image description in readme (-0.5)</t>
+  </si>
+  <si>
+    <t>No video (-3), No findings (-1)</t>
+  </si>
+  <si>
+    <t>Late video (-1),late update readme(-1), No Finding (-1)</t>
+  </si>
+  <si>
+    <t>Late image (-0.5), not telling data process (-1), late video (-1), late readme update(-1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no data process discussion (-1%), late video (-1)</t>
+  </si>
+  <si>
+    <t>No data description (-1), failed to show image in readme (-0.5)</t>
   </si>
 </sst>
 </file>
@@ -605,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +635,13 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,6 +653,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -681,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -703,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -766,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -790,11 +805,17 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -826,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -848,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -894,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -948,7 +969,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -973,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -990,7 +1011,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1006,6 +1027,9 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1017,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -1034,7 +1058,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF2E18-C5EB-402C-AC6B-C9F2BEA97CE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B14662-A3B8-4864-84B5-6DDDB1488885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Fullname</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>No data description (-1), failed to show image in readme (-0.5)</t>
+  </si>
+  <si>
+    <t>wrong image forma(-0.5),  no data findings, (-1)</t>
+  </si>
+  <si>
+    <t>No data finding, no data description, (-2)</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +847,9 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1064,6 +1073,9 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B14662-A3B8-4864-84B5-6DDDB1488885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F51B58E-6E42-429A-83AD-652989C10285}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>No data process story and finding (-2)</t>
   </si>
   <si>
-    <t>No image or capture in readme</t>
-  </si>
-  <si>
     <t>1 day late submission (-2)</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>No data finding, no data description, (-2)</t>
+  </si>
+  <si>
+    <t>No image or capture in readme(=0.5),content in read me needs more information (-0.5)</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -724,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -878,7 +878,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1020,7 +1020,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1037,7 +1037,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/OneDrive - Texas Tech University/github/CS5331_Spring2019/testJS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F51B58E-6E42-429A-83AD-652989C10285}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -272,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,20 +622,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,12 +652,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -663,7 +665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -680,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -697,7 +699,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -714,12 +716,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -736,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -753,17 +755,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -777,12 +779,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -790,7 +792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -807,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -815,7 +817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -823,27 +825,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -851,7 +853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -868,12 +870,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -881,7 +883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -898,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -906,12 +908,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -919,7 +921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -936,22 +938,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -968,12 +970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -981,7 +983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1040,12 +1042,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F51B58E-6E42-429A-83AD-652989C10285}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A8F4D-F678-4582-B9FB-5C1E2E6AE5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C5A55-07FC-406A-B2A4-16AD07183CFF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testJS/data/P1_comment.xlsx
+++ b/testJS/data/P1_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A8F4D-F678-4582-B9FB-5C1E2E6AE5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC0EE3D-F358-46DD-9A06-13CDD895B032}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
+    <workbookView minimized="1" xWindow="2865" yWindow="2910" windowWidth="15300" windowHeight="7875" xr2:uid="{D723DA88-2802-4F03-A580-A328A75F80DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Fullname</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>No image or capture in readme(=0.5),content in read me needs more information (-0.5)</t>
+  </si>
+  <si>
+    <t>late image+wrong image format(-1), no data findings (-1)</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
